--- a/Excel/work/知识卡第一期.xlsx
+++ b/Excel/work/知识卡第一期.xlsx
@@ -7,8 +7,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="从青铜到王者卡片2  C++模板编译模型" sheetId="2" r:id="rId1"/>
-    <sheet name="从青铜到王者卡片-Lambda 表达式" sheetId="1" r:id="rId2"/>
+    <sheet name="从青铜到王者卡片-右值引用" sheetId="3" r:id="rId1"/>
+    <sheet name="从青铜到王者卡片2  C++模板编译模型" sheetId="2" r:id="rId2"/>
+    <sheet name="从青铜到王者卡片-Lambda 表达式" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
   <si>
     <t xml:space="preserve">一、这个技术出现的背景、初衷和要达到什么样的目标或是要解决什么样的问题 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -150,6 +151,26 @@
   </si>
   <si>
     <t>https://blog.csdn.net/onafioo/article/details/29857281</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右值引用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我根本不知道呀？--我使用过的，想到过的参数传递 方向使用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板函数中指针作为调用参数时模板参数的推导问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 必须使用场景 uniqe_ptr  2 不能使用场景  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样使用有什么问题呢？ Unique——a =b</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +254,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,6 +287,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -278,26 +326,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -316,6 +349,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1447800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>522937</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>123406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="8896350"/>
+          <a:ext cx="7504762" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,7 +659,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="91.375" customWidth="1"/>
+    <col min="3" max="3" width="23.375" customWidth="1"/>
+    <col min="4" max="4" width="99.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22"/>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="24"/>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="24"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="24"/>
+      <c r="D10" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="24"/>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="24"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="23"/>
+    </row>
+    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="24"/>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -596,14 +878,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
+      <c r="A2" s="25"/>
       <c r="B2" s="12" t="s">
         <v>24</v>
       </c>
@@ -627,14 +909,14 @@
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="13"/>
     </row>
     <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -647,11 +929,11 @@
     </row>
     <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
@@ -664,22 +946,22 @@
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="19" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="15"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="24"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="15"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -694,17 +976,17 @@
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="18" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="21"/>
-      <c r="D15" s="24" t="s">
+      <c r="B15" s="22"/>
+      <c r="D15" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -719,11 +1001,11 @@
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="23"/>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
@@ -736,11 +1018,11 @@
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="24"/>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
@@ -796,7 +1078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -813,13 +1095,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
+      <c r="A2" s="22"/>
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
@@ -843,11 +1125,11 @@
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="15"/>
+      <c r="B4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="15"/>
+      <c r="B5" s="24"/>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -860,11 +1142,11 @@
     </row>
     <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="24"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="15"/>
+      <c r="B8" s="24"/>
     </row>
     <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -877,20 +1159,20 @@
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="15"/>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="24"/>
+      <c r="D10" s="28" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="15"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="24"/>
+      <c r="D11" s="20"/>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="15"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="24"/>
+      <c r="D12" s="20"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -905,11 +1187,11 @@
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="23"/>
     </row>
     <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="14"/>
+      <c r="B15" s="23"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -922,11 +1204,11 @@
     </row>
     <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="14"/>
+      <c r="B17" s="23"/>
     </row>
     <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="14"/>
+      <c r="B18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
@@ -939,11 +1221,11 @@
     </row>
     <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="15"/>
+      <c r="B20" s="24"/>
     </row>
     <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="15"/>
+      <c r="B21" s="24"/>
     </row>
     <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>

--- a/Excel/work/知识卡第一期.xlsx
+++ b/Excel/work/知识卡第一期.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="从青铜到王者卡片-右值引用" sheetId="3" r:id="rId1"/>
-    <sheet name="从青铜到王者卡片2  C++模板编译模型" sheetId="2" r:id="rId2"/>
-    <sheet name="从青铜到王者卡片-Lambda 表达式" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="从青铜到王者卡片2  C++模板编译模型" sheetId="2" r:id="rId3"/>
+    <sheet name="从青铜到王者卡片-Lambda 表达式" sheetId="1" r:id="rId4"/>
+    <sheet name="线程池实现" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="83">
   <si>
     <t xml:space="preserve">一、这个技术出现的背景、初衷和要达到什么样的目标或是要解决什么样的问题 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -88,10 +90,6 @@
   </si>
   <si>
     <t>青铜：</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lambda 表达式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -158,19 +156,225 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>模板函数中指针作为调用参数时模板参数的推导问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1 必须使用场景 uniqe_ptr  2 不能使用场景  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样使用有什么问题呢？ Unique——a =b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜 你从哪里看到听到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>我根本不知道呀？--我使用过的，想到过的参数传递 方向使用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>模板函数中指针作为调用参数时模板参数的推导问题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1 必须使用场景 uniqe_ptr  2 不能使用场景  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>这样使用有什么问题呢？ Unique——a =b</t>
+    <t>王者：解决什么样的问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://thbecker.net/articles/rvalue_references/section_01.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">when you first look at them, it is not clear what their purpose is or what problems they solve. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rvalue references solve at least two problems:
+https://www.mdnice.com/writing/674689112a514117bfeeadc434e5ef55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、这个技术出现的背景、初衷和要达到什么样的目标或是要解决什么样的问题 （what problems they solve）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、这个技术适用的场景。任何技术都有其适用的场景，离开了这个场景： )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么不能这样做，这样做</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回来什么问题。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar = std::move(foo); std::unique_ptr&lt;int&gt; foo  std::unique_ptr&lt;int&gt; bar;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://thbecker.net/articles/rvalue_references/section_08.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>std：move在低下做什么事情 三个步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>std：forward&lt;T&gt; 三个步骤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 template deduction rulr  2 remove_reference_t 3  static_cast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">template&lt;typename T, typename Arg&gt; 
+shared_ptr&lt;T&gt; factory(Arg&amp;&amp; arg)
+{ 
+  return shared_ptr&lt;T&gt;(new T(std::forward&lt;Arg&gt;(arg)));
+} </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">C++基础（九）再谈lambda 值捕获、引用捕获、隐式捕获以及避坑
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda表达式是C++11新推出来的一个概念，非常好用，但如同C++的其他知识点一样，坑也很多。
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/qq_33776188/article/details/107561087?utm_medium=distribute.pc_relevant.none-task-blog-2~default~baidujs_title~default-0.pc_relevant_paycolumn_v2&amp;spm=1001.2101.3001.4242.1&amp;utm_relevant_index=3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 值传递 解决生命周期不不一致【存在，不存在】 2. 多线程 【都存在】</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 本质  2 传递方式 3 指针怎么处理 4 char*指针呢 5 1 存在什么问题 2 如何解决的 存在2个问题是什么？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 引用一个局部遍历 或者成员变量  ，或者在lambder表达式调用之前，消失。不会马上执行。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern C++中lambda表达式的陷阱
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要记住的2点：
+默认引用捕获会导致空悬引用。
+默认值捕获对空悬指针（尤其是this）很敏感，而且它会误导地表明lambda是独立的。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>条款31.避免默认捕获模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lambda 表达式 条款31.避免默认捕获模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">多线程和Lambda表达式
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">线程池-std::function作为通用的任务
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>线程池</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>enable_shared_from_this</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>std:function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::enable_shared_from_this 有什么意义？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">你假设场景 easy </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜级别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">和问题本质没有关系 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于跑题，转移概念</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思考60秒 stop</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一直觉 疑问</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++ lambda. How need to capture the pointer?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GNU GCC使用ld链接器进行链接的完整过程是怎样的？
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GNU GCC使用ld链接器进行链接的完整过程是怎样的？引用的问题(symbol resolution)
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>深入理解计算机系统 第7章 链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">详解 gcc 编译、链接原理 — 揭开应用程序运行背后的奥秘
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">gcc 链接器工作原理
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshu.com/p/59a86df880e4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> win10 的 msvc，Ubuntu 的 gcc 和 clang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编译器和连接器区别</t>
+  </si>
+  <si>
+    <t>编译器和连接器区别</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,8 +428,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121212"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,8 +479,23 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -246,15 +503,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,56 +618,122 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="4" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="差" xfId="5" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="计算" xfId="4" builtinId="22"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -383,6 +780,87 @@
         <a:xfrm>
           <a:off x="1447800" y="8896350"/>
           <a:ext cx="7504762" cy="3352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1438275</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3141761</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>142476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="6724650"/>
+          <a:ext cx="11914286" cy="3190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3608463</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>37874</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="10420350"/>
+          <a:ext cx="12095238" cy="1809524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -657,10 +1135,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="91.375" customWidth="1"/>
+    <col min="3" max="3" width="55.625" customWidth="1"/>
+    <col min="4" max="4" width="99.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D20:D21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="https://www.mdnice.com/writing/674689112a514117bfeeadc434e5ef55"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C14" r:id="rId3"/>
+    <hyperlink ref="C20" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,28 +1445,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="14"/>
+      <c r="A1" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="14" t="s">
-        <v>31</v>
+      <c r="A2" s="47"/>
+      <c r="B2" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
@@ -701,172 +1475,227 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
       <c r="D4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="24"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="46"/>
+    </row>
+    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="24"/>
-    </row>
-    <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15" t="s">
+    <row r="8" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="46"/>
+      <c r="D8" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="46"/>
+    </row>
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="24"/>
-      <c r="D10" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="24"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="24"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="D10" s="53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="46"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="46"/>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="23"/>
-    </row>
-    <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="23"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
+    <row r="15" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="44"/>
+      <c r="D16" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="23"/>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="23"/>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17" t="s">
+      <c r="D17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="45"/>
+      <c r="D18" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="45"/>
+      <c r="D19" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="14"/>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="46"/>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B24" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="D25" s="31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="D28" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B21:B22"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="D16" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D15" r:id="rId4"/>
+    <hyperlink ref="E28" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId6"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -878,238 +1707,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="8"/>
+      <c r="A1" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="12" t="s">
-        <v>24</v>
+      <c r="A2" s="44"/>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="24"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="24"/>
-    </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="24"/>
-    </row>
-    <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="24"/>
-      <c r="D11" s="20"/>
-    </row>
-    <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="24"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="22"/>
-      <c r="D15" s="18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="23"/>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="23"/>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B10:B12"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="D15" r:id="rId2"/>
-    <hyperlink ref="D10" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="91.375" customWidth="1"/>
-    <col min="3" max="3" width="23.375" customWidth="1"/>
-    <col min="4" max="4" width="99.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1122,14 +1734,25 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="31" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="46"/>
+      <c r="D5" s="13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
@@ -1139,14 +1762,22 @@
       <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="24"/>
+      <c r="B8" s="46"/>
     </row>
     <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
@@ -1159,20 +1790,22 @@
     </row>
     <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="24"/>
-      <c r="D10" s="28" t="s">
-        <v>23</v>
+      <c r="B10" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="24"/>
-      <c r="D11" s="20"/>
+      <c r="B11" s="46"/>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="24"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="46"/>
+      <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -1187,11 +1820,11 @@
     </row>
     <row r="14" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="23"/>
+      <c r="B14" s="45"/>
     </row>
     <row r="15" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="45"/>
     </row>
     <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -1202,15 +1835,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="23"/>
-    </row>
-    <row r="18" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="23"/>
-    </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B18" s="45"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>9</v>
@@ -1219,43 +1854,51 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B20" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="24"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+      <c r="B21" s="46"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1270,7 +1913,249 @@
     <mergeCell ref="B10:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D5" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="83.25" customWidth="1"/>
+    <col min="3" max="3" width="33.25" customWidth="1"/>
+    <col min="4" max="4" width="49.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="37"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="16"/>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="27"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="20"/>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="35"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="35"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="27"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="27"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A16" s="27"/>
+      <c r="B16" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A17" s="27"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="16"/>
+    </row>
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A18" s="27"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="16"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A19" s="27"/>
+      <c r="B19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="16"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="41"/>
+    </row>
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="41"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="16"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="16"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A26" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D10:D12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>